--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnc-Itga7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnc-Itga7.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.07002266666666</v>
+        <v>0.1347866666666667</v>
       </c>
       <c r="H2">
-        <v>36.21006799999999</v>
+        <v>0.40436</v>
       </c>
       <c r="I2">
-        <v>0.7601982364861632</v>
+        <v>0.03419045085634245</v>
       </c>
       <c r="J2">
-        <v>0.7601982364861634</v>
+        <v>0.03419045085634244</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.464265666666667</v>
+        <v>2.750415333333333</v>
       </c>
       <c r="N2">
-        <v>4.392797</v>
+        <v>8.251245999999998</v>
       </c>
       <c r="O2">
-        <v>0.02620474750556022</v>
+        <v>0.04811444325525444</v>
       </c>
       <c r="P2">
-        <v>0.02620474750556022</v>
+        <v>0.04811444325525444</v>
       </c>
       <c r="Q2">
-        <v>17.67371978668844</v>
+        <v>0.3707193147288888</v>
       </c>
       <c r="R2">
-        <v>159.0634780801959</v>
+        <v>3.336473832559999</v>
       </c>
       <c r="S2">
-        <v>0.01992080284129207</v>
+        <v>0.001645054507599054</v>
       </c>
       <c r="T2">
-        <v>0.01992080284129207</v>
+        <v>0.001645054507599054</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.07002266666666</v>
+        <v>0.1347866666666667</v>
       </c>
       <c r="H3">
-        <v>36.21006799999999</v>
+        <v>0.40436</v>
       </c>
       <c r="I3">
-        <v>0.7601982364861632</v>
+        <v>0.03419045085634245</v>
       </c>
       <c r="J3">
-        <v>0.7601982364861634</v>
+        <v>0.03419045085634244</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.427118</v>
       </c>
       <c r="O3">
-        <v>0.01447870556190061</v>
+        <v>0.01415294505639593</v>
       </c>
       <c r="P3">
-        <v>0.01447870556190061</v>
+        <v>0.01415294505639593</v>
       </c>
       <c r="Q3">
-        <v>9.765123091558221</v>
+        <v>0.1090477149422222</v>
       </c>
       <c r="R3">
-        <v>87.88610782402398</v>
+        <v>0.9814294344800001</v>
       </c>
       <c r="S3">
-        <v>0.01100668643475925</v>
+        <v>0.0004838955724232197</v>
       </c>
       <c r="T3">
-        <v>0.01100668643475925</v>
+        <v>0.0004838955724232197</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.07002266666666</v>
+        <v>0.1347866666666667</v>
       </c>
       <c r="H4">
-        <v>36.21006799999999</v>
+        <v>0.40436</v>
       </c>
       <c r="I4">
-        <v>0.7601982364861632</v>
+        <v>0.03419045085634245</v>
       </c>
       <c r="J4">
-        <v>0.7601982364861634</v>
+        <v>0.03419045085634244</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>160.813717</v>
       </c>
       <c r="O4">
-        <v>0.9593165469325392</v>
+        <v>0.9377326116883496</v>
       </c>
       <c r="P4">
-        <v>0.9593165469325391</v>
+        <v>0.9377326116883496</v>
       </c>
       <c r="Q4">
-        <v>647.0084031003061</v>
+        <v>7.225181622902221</v>
       </c>
       <c r="R4">
-        <v>5823.075627902755</v>
+        <v>65.02663460612</v>
       </c>
       <c r="S4">
-        <v>0.729270747210112</v>
+        <v>0.03206150077632017</v>
       </c>
       <c r="T4">
-        <v>0.729270747210112</v>
+        <v>0.03206150077632017</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.924804</v>
       </c>
       <c r="I5">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="J5">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.464265666666667</v>
+        <v>2.750415333333333</v>
       </c>
       <c r="N5">
-        <v>4.392797</v>
+        <v>8.251245999999998</v>
       </c>
       <c r="O5">
-        <v>0.02620474750556022</v>
+        <v>0.04811444325525444</v>
       </c>
       <c r="P5">
-        <v>0.02620474750556022</v>
+        <v>0.04811444325525444</v>
       </c>
       <c r="Q5">
-        <v>1.915651915198667</v>
+        <v>3.598280367309333</v>
       </c>
       <c r="R5">
-        <v>17.240867236788</v>
+        <v>32.38452330578399</v>
       </c>
       <c r="S5">
-        <v>0.002159212920415242</v>
+        <v>0.01596724827293204</v>
       </c>
       <c r="T5">
-        <v>0.002159212920415242</v>
+        <v>0.01596724827293203</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.924804</v>
       </c>
       <c r="I6">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="J6">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.427118</v>
       </c>
       <c r="O6">
-        <v>0.01447870556190061</v>
+        <v>0.01415294505639593</v>
       </c>
       <c r="P6">
-        <v>0.01447870556190061</v>
+        <v>0.01415294505639593</v>
       </c>
       <c r="Q6">
         <v>1.058440270541333</v>
@@ -818,10 +818,10 @@
         <v>9.525962434872</v>
       </c>
       <c r="S6">
-        <v>0.00119301314059639</v>
+        <v>0.004696793150234797</v>
       </c>
       <c r="T6">
-        <v>0.00119301314059639</v>
+        <v>0.004696793150234796</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.924804</v>
       </c>
       <c r="I7">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="J7">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>160.813717</v>
       </c>
       <c r="O7">
-        <v>0.9593165469325392</v>
+        <v>0.9377326116883496</v>
       </c>
       <c r="P7">
-        <v>0.9593165469325391</v>
+        <v>0.9377326116883496</v>
       </c>
       <c r="Q7">
         <v>70.12914663738533</v>
@@ -880,10 +880,10 @@
         <v>631.162319736468</v>
       </c>
       <c r="S7">
-        <v>0.07904555014183451</v>
+        <v>0.3111957327453371</v>
       </c>
       <c r="T7">
-        <v>0.07904555014183449</v>
+        <v>0.3111957327453371</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>7.49753</v>
       </c>
       <c r="I8">
-        <v>0.1574039873109905</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="J8">
-        <v>0.1574039873109906</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.464265666666667</v>
+        <v>2.750415333333333</v>
       </c>
       <c r="N8">
-        <v>4.392797</v>
+        <v>8.251245999999998</v>
       </c>
       <c r="O8">
-        <v>0.02620474750556022</v>
+        <v>0.04811444325525444</v>
       </c>
       <c r="P8">
-        <v>0.02620474750556022</v>
+        <v>0.04811444325525444</v>
       </c>
       <c r="Q8">
-        <v>3.659458587934445</v>
+        <v>6.873773824708887</v>
       </c>
       <c r="R8">
-        <v>32.93512729141</v>
+        <v>61.86396442237999</v>
       </c>
       <c r="S8">
-        <v>0.004124731743852912</v>
+        <v>0.03050214047472335</v>
       </c>
       <c r="T8">
-        <v>0.004124731743852912</v>
+        <v>0.03050214047472335</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>7.49753</v>
       </c>
       <c r="I9">
-        <v>0.1574039873109905</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="J9">
-        <v>0.1574039873109906</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>2.427118</v>
       </c>
       <c r="O9">
-        <v>0.01447870556190061</v>
+        <v>0.01415294505639593</v>
       </c>
       <c r="P9">
-        <v>0.01447870556190061</v>
+        <v>0.01415294505639593</v>
       </c>
       <c r="Q9">
         <v>2.021932224282222</v>
@@ -1004,10 +1004,10 @@
         <v>18.19739001854</v>
       </c>
       <c r="S9">
-        <v>0.002279005986544972</v>
+        <v>0.008972256333737912</v>
       </c>
       <c r="T9">
-        <v>0.002279005986544972</v>
+        <v>0.008972256333737914</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>7.49753</v>
       </c>
       <c r="I10">
-        <v>0.1574039873109905</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="J10">
-        <v>0.1574039873109906</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>160.813717</v>
       </c>
       <c r="O10">
-        <v>0.9593165469325392</v>
+        <v>0.9377326116883496</v>
       </c>
       <c r="P10">
-        <v>0.9593165469325391</v>
+        <v>0.9377326116883496</v>
       </c>
       <c r="Q10">
         <v>133.9672964021122</v>
@@ -1066,10 +1066,10 @@
         <v>1205.70566761901</v>
       </c>
       <c r="S10">
-        <v>0.1510002495805927</v>
+        <v>0.5944753781666925</v>
       </c>
       <c r="T10">
-        <v>0.1510002495805927</v>
+        <v>0.5944753781666925</v>
       </c>
     </row>
   </sheetData>
